--- a/Excel/user_info.xlsx
+++ b/Excel/user_info.xlsx
@@ -1,31 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27531"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/12b12b08b9581f4a/Desktop/Website_NEW/Excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4fd22e058e52b25e/Desktop/Version 3 (development)/Version 3 (development)/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{4D470730-A8CE-472B-AA53-B3ECD96B56C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A9BE1D3F-6D02-4FCE-9F21-948B1CAF6C6F}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="13_ncr:1_{9CD47778-91A6-4679-A579-BA0DFD855D53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5B2BF723-161B-4450-8E51-2C85B39CA9DF}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
   <si>
     <t>Name</t>
   </si>
@@ -36,52 +31,94 @@
     <t>Password</t>
   </si>
   <si>
-    <t>Type Of Account</t>
+    <t>Project</t>
+  </si>
+  <si>
+    <t>MailID</t>
+  </si>
+  <si>
+    <t>PhoneNo</t>
+  </si>
+  <si>
+    <t>Umar</t>
+  </si>
+  <si>
+    <t>Zafar</t>
+  </si>
+  <si>
+    <t>Abbas</t>
+  </si>
+  <si>
+    <t>Fahad</t>
+  </si>
+  <si>
+    <t>umar</t>
+  </si>
+  <si>
+    <t>zafar</t>
+  </si>
+  <si>
+    <t>fahad</t>
+  </si>
+  <si>
+    <t>Manager</t>
   </si>
   <si>
     <t>Employee</t>
   </si>
   <si>
-    <t>Manager</t>
-  </si>
-  <si>
-    <t>Fahad</t>
-  </si>
-  <si>
-    <t>Zafar</t>
-  </si>
-  <si>
-    <t>zafar</t>
-  </si>
-  <si>
-    <t>umar</t>
-  </si>
-  <si>
-    <t>Abbas</t>
-  </si>
-  <si>
-    <t>fahad</t>
-  </si>
-  <si>
-    <t>abbas</t>
-  </si>
-  <si>
-    <t>Project</t>
-  </si>
-  <si>
     <t>SOI ASSAM</t>
   </si>
   <si>
     <t>SOI TRIPURA</t>
   </si>
   <si>
-    <t>Umar</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>shaikhfahad687@gmail.com</t>
+    <t>shaikhfahad3asd210@gmailasdasd.com</t>
+  </si>
+  <si>
+    <t>extrashaikh786@gmail.com</t>
+  </si>
+  <si>
+    <t>shaikhtesting@gmail.com</t>
+  </si>
+  <si>
+    <t>shaikhtesting02@gmail.com</t>
+  </si>
+  <si>
+    <t>undasdasdsadsd</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>sd</t>
+  </si>
+  <si>
+    <t>TypeOfAccount</t>
+  </si>
+  <si>
+    <t>ImageName</t>
+  </si>
+  <si>
+    <t>image1.jpg</t>
+  </si>
+  <si>
+    <t>horse.png</t>
+  </si>
+  <si>
+    <t>dolphin.jpg</t>
+  </si>
+  <si>
+    <t>sparrow.png</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>admin</t>
   </si>
 </sst>
 </file>
@@ -97,19 +134,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <sz val="8"/>
+      <color rgb="FF00A67D"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -120,7 +156,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -128,23 +164,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{0A875940-37A2-47EF-BE9C-678FC2BCAE97}"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -156,10 +206,14 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -167,39 +221,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -234,7 +288,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -269,7 +323,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -278,255 +332,311 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="3" max="3" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5546875" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
         <v>13</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
         <v>17</v>
       </c>
+      <c r="G2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
       <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="B4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" t="s">
         <v>15</v>
       </c>
+      <c r="F4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
         <v>12</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C5" t="s">
         <v>12</v>
       </c>
-      <c r="D4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="D5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s">
-        <v>4</v>
-      </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="F5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" xr:uid="{2962ECB9-A97F-4A20-ACF2-CCDF7EEB79F9}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>